--- a/RC.xlsx
+++ b/RC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,6 +4189,186 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>14.03.2023</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>75,4609</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>15.03.2023</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>75,1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>16.03.2023</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>75,7457</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>17.03.2023</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>76,4095</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>18.03.2023</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>76,6044</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>21.03.2023</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>77,2422</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>76,8373</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>23.03.2023</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>76,9561</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>24.03.2023</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>76,3072</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>25.03.2023</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>76,4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>28.03.2023</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>76,5662</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>29.03.2023</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>76,5939</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>30.03.2023</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>76,9781</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>31.03.2023</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>77,0863</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>77,3233</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
